--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05802733333333333</v>
+        <v>0.1829693333333333</v>
       </c>
       <c r="H2">
-        <v>0.174082</v>
+        <v>0.548908</v>
       </c>
       <c r="I2">
-        <v>0.001335523050427261</v>
+        <v>0.004221684928116883</v>
       </c>
       <c r="J2">
-        <v>0.001335523050427261</v>
+        <v>0.004221684928116882</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.933412333333333</v>
+        <v>8.061744666666668</v>
       </c>
       <c r="N2">
-        <v>5.800237</v>
+        <v>24.185234</v>
       </c>
       <c r="O2">
-        <v>0.187524686373736</v>
+        <v>0.8690987204662018</v>
       </c>
       <c r="P2">
-        <v>0.187524686373736</v>
+        <v>0.8690987204662017</v>
       </c>
       <c r="Q2">
-        <v>0.1121907619371111</v>
+        <v>1.475052047163556</v>
       </c>
       <c r="R2">
-        <v>1.009716857434</v>
+        <v>13.275468424472</v>
       </c>
       <c r="S2">
-        <v>0.0002504435411762673</v>
+        <v>0.003669060969237832</v>
       </c>
       <c r="T2">
-        <v>0.0002504435411762673</v>
+        <v>0.003669060969237831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,46 +599,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05802733333333333</v>
+        <v>0.1829693333333333</v>
       </c>
       <c r="H3">
-        <v>0.174082</v>
+        <v>0.548908</v>
       </c>
       <c r="I3">
-        <v>0.001335523050427261</v>
+        <v>0.004221684928116883</v>
       </c>
       <c r="J3">
-        <v>0.001335523050427261</v>
+        <v>0.004221684928116882</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>8.061744666666668</v>
+        <v>0.086217</v>
       </c>
       <c r="N3">
-        <v>24.185234</v>
+        <v>0.258651</v>
       </c>
       <c r="O3">
-        <v>0.7819212250681163</v>
+        <v>0.009294648674778319</v>
       </c>
       <c r="P3">
-        <v>0.7819212250681165</v>
+        <v>0.009294648674778319</v>
       </c>
       <c r="Q3">
-        <v>0.4678015450208889</v>
+        <v>0.015775067012</v>
       </c>
       <c r="R3">
-        <v>4.210213905188</v>
+        <v>0.141975603108</v>
       </c>
       <c r="S3">
-        <v>0.001044273819696792</v>
+        <v>3.923907822245319E-05</v>
       </c>
       <c r="T3">
-        <v>0.001044273819696792</v>
+        <v>3.923907822245318E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,51 +661,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05802733333333333</v>
+        <v>0.1829693333333333</v>
       </c>
       <c r="H4">
-        <v>0.174082</v>
+        <v>0.548908</v>
       </c>
       <c r="I4">
-        <v>0.001335523050427261</v>
+        <v>0.004221684928116883</v>
       </c>
       <c r="J4">
-        <v>0.001335523050427261</v>
+        <v>0.004221684928116882</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03887733333333333</v>
+        <v>1.128021</v>
       </c>
       <c r="N4">
-        <v>0.116632</v>
+        <v>3.384063</v>
       </c>
       <c r="O4">
-        <v>0.003770773370319449</v>
+        <v>0.1216066308590198</v>
       </c>
       <c r="P4">
-        <v>0.00377077337031945</v>
+        <v>0.1216066308590198</v>
       </c>
       <c r="Q4">
-        <v>0.002255947980444444</v>
+        <v>0.206393250356</v>
       </c>
       <c r="R4">
-        <v>0.020303531824</v>
+        <v>1.857539253204</v>
       </c>
       <c r="S4">
-        <v>5.035954753998916E-06</v>
+        <v>0.0005133848806565974</v>
       </c>
       <c r="T4">
-        <v>5.035954753998916E-06</v>
+        <v>0.0005133848806565973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05802733333333333</v>
+        <v>42.68588366666666</v>
       </c>
       <c r="H5">
-        <v>0.174082</v>
+        <v>128.057651</v>
       </c>
       <c r="I5">
-        <v>0.001335523050427261</v>
+        <v>0.9848992092604805</v>
       </c>
       <c r="J5">
-        <v>0.001335523050427261</v>
+        <v>0.9848992092604804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2761406666666666</v>
+        <v>8.061744666666668</v>
       </c>
       <c r="N5">
-        <v>0.828422</v>
+        <v>24.185234</v>
       </c>
       <c r="O5">
-        <v>0.0267833151878282</v>
+        <v>0.8690987204662018</v>
       </c>
       <c r="P5">
-        <v>0.02678331518782821</v>
+        <v>0.8690987204662017</v>
       </c>
       <c r="Q5">
-        <v>0.01602370651155555</v>
+        <v>344.1226949917038</v>
       </c>
       <c r="R5">
-        <v>0.144213358604</v>
+        <v>3097.104254925334</v>
       </c>
       <c r="S5">
-        <v>3.576973480020312E-05</v>
+        <v>0.8559746425564575</v>
       </c>
       <c r="T5">
-        <v>3.576973480020312E-05</v>
+        <v>0.8559746425564574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>128.057651</v>
       </c>
       <c r="I6">
-        <v>0.9824332480903805</v>
+        <v>0.9848992092604805</v>
       </c>
       <c r="J6">
-        <v>0.9824332480903805</v>
+        <v>0.9848992092604804</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.933412333333333</v>
+        <v>0.086217</v>
       </c>
       <c r="N6">
-        <v>5.800237</v>
+        <v>0.258651</v>
       </c>
       <c r="O6">
-        <v>0.187524686373736</v>
+        <v>0.009294648674778319</v>
       </c>
       <c r="P6">
-        <v>0.187524686373736</v>
+        <v>0.009294648674778319</v>
       </c>
       <c r="Q6">
-        <v>82.52941394036522</v>
+        <v>3.680248832089</v>
       </c>
       <c r="R6">
-        <v>742.7647254632869</v>
+        <v>33.122239488801</v>
       </c>
       <c r="S6">
-        <v>0.1842304867312793</v>
+        <v>0.009154292130143139</v>
       </c>
       <c r="T6">
-        <v>0.1842304867312793</v>
+        <v>0.009154292130143139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>128.057651</v>
       </c>
       <c r="I7">
-        <v>0.9824332480903805</v>
+        <v>0.9848992092604805</v>
       </c>
       <c r="J7">
-        <v>0.9824332480903805</v>
+        <v>0.9848992092604804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.061744666666668</v>
+        <v>1.128021</v>
       </c>
       <c r="N7">
-        <v>24.185234</v>
+        <v>3.384063</v>
       </c>
       <c r="O7">
-        <v>0.7819212250681163</v>
+        <v>0.1216066308590198</v>
       </c>
       <c r="P7">
-        <v>0.7819212250681165</v>
+        <v>0.1216066308590198</v>
       </c>
       <c r="Q7">
-        <v>344.1226949917038</v>
+        <v>48.15057317955699</v>
       </c>
       <c r="R7">
-        <v>3097.104254925334</v>
+        <v>433.3551586160129</v>
       </c>
       <c r="S7">
-        <v>0.7681854088944789</v>
+        <v>0.1197702745738798</v>
       </c>
       <c r="T7">
-        <v>0.7681854088944791</v>
+        <v>0.1197702745738798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>42.68588366666666</v>
+        <v>0.1203946666666667</v>
       </c>
       <c r="H8">
-        <v>128.057651</v>
+        <v>0.361184</v>
       </c>
       <c r="I8">
-        <v>0.9824332480903805</v>
+        <v>0.002777888187231682</v>
       </c>
       <c r="J8">
-        <v>0.9824332480903805</v>
+        <v>0.002777888187231682</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.03887733333333333</v>
+        <v>8.061744666666668</v>
       </c>
       <c r="N8">
-        <v>0.116632</v>
+        <v>24.185234</v>
       </c>
       <c r="O8">
-        <v>0.003770773370319449</v>
+        <v>0.8690987204662018</v>
       </c>
       <c r="P8">
-        <v>0.00377077337031945</v>
+        <v>0.8690987204662017</v>
       </c>
       <c r="Q8">
-        <v>1.659513327936889</v>
+        <v>0.9705910618951112</v>
       </c>
       <c r="R8">
-        <v>14.935619951432</v>
+        <v>8.735319557056</v>
       </c>
       <c r="S8">
-        <v>0.003704533130015648</v>
+        <v>0.002414259069121232</v>
       </c>
       <c r="T8">
-        <v>0.003704533130015648</v>
+        <v>0.002414259069121232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>42.68588366666666</v>
+        <v>0.1203946666666667</v>
       </c>
       <c r="H9">
-        <v>128.057651</v>
+        <v>0.361184</v>
       </c>
       <c r="I9">
-        <v>0.9824332480903805</v>
+        <v>0.002777888187231682</v>
       </c>
       <c r="J9">
-        <v>0.9824332480903805</v>
+        <v>0.002777888187231682</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.2761406666666666</v>
+        <v>0.086217</v>
       </c>
       <c r="N9">
-        <v>0.828422</v>
+        <v>0.258651</v>
       </c>
       <c r="O9">
-        <v>0.0267833151878282</v>
+        <v>0.009294648674778319</v>
       </c>
       <c r="P9">
-        <v>0.02678331518782821</v>
+        <v>0.009294648674778319</v>
       </c>
       <c r="Q9">
-        <v>11.78730837296911</v>
+        <v>0.010380066976</v>
       </c>
       <c r="R9">
-        <v>106.085775356722</v>
+        <v>0.09342060278400001</v>
       </c>
       <c r="S9">
-        <v>0.02631281933460648</v>
+        <v>2.58194947581353E-05</v>
       </c>
       <c r="T9">
-        <v>0.02631281933460648</v>
+        <v>2.58194947581353E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,51 +1033,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5344323333333333</v>
+        <v>0.1203946666666667</v>
       </c>
       <c r="H10">
-        <v>1.603297</v>
+        <v>0.361184</v>
       </c>
       <c r="I10">
-        <v>0.01230018095024688</v>
+        <v>0.002777888187231682</v>
       </c>
       <c r="J10">
-        <v>0.01230018095024688</v>
+        <v>0.002777888187231682</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.933412333333333</v>
+        <v>1.128021</v>
       </c>
       <c r="N10">
-        <v>5.800237</v>
+        <v>3.384063</v>
       </c>
       <c r="O10">
-        <v>0.187524686373736</v>
+        <v>0.1216066308590198</v>
       </c>
       <c r="P10">
-        <v>0.187524686373736</v>
+        <v>0.1216066308590198</v>
       </c>
       <c r="Q10">
-        <v>1.033278064598778</v>
+        <v>0.135807712288</v>
       </c>
       <c r="R10">
-        <v>9.299502581389</v>
+        <v>1.222269410592</v>
       </c>
       <c r="S10">
-        <v>0.002306587575035247</v>
+        <v>0.0003378096233523149</v>
       </c>
       <c r="T10">
-        <v>0.002306587575035247</v>
+        <v>0.0003378096233523149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5344323333333333</v>
+        <v>0.3511096666666667</v>
       </c>
       <c r="H11">
-        <v>1.603297</v>
+        <v>1.053329</v>
       </c>
       <c r="I11">
-        <v>0.01230018095024688</v>
+        <v>0.00810121762417095</v>
       </c>
       <c r="J11">
-        <v>0.01230018095024688</v>
+        <v>0.008101217624170948</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>24.185234</v>
       </c>
       <c r="O11">
-        <v>0.7819212250681163</v>
+        <v>0.8690987204662018</v>
       </c>
       <c r="P11">
-        <v>0.7819212250681165</v>
+        <v>0.8690987204662017</v>
       </c>
       <c r="Q11">
-        <v>4.308457012944222</v>
+        <v>2.830556482665112</v>
       </c>
       <c r="R11">
-        <v>38.776113116498</v>
+        <v>25.475008343986</v>
       </c>
       <c r="S11">
-        <v>0.009617772557176545</v>
+        <v>0.007040757871385217</v>
       </c>
       <c r="T11">
-        <v>0.009617772557176545</v>
+        <v>0.007040757871385214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5344323333333333</v>
+        <v>0.3511096666666667</v>
       </c>
       <c r="H12">
-        <v>1.603297</v>
+        <v>1.053329</v>
       </c>
       <c r="I12">
-        <v>0.01230018095024688</v>
+        <v>0.00810121762417095</v>
       </c>
       <c r="J12">
-        <v>0.01230018095024688</v>
+        <v>0.008101217624170948</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,33 +1175,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.03887733333333333</v>
+        <v>0.086217</v>
       </c>
       <c r="N12">
-        <v>0.116632</v>
+        <v>0.258651</v>
       </c>
       <c r="O12">
-        <v>0.003770773370319449</v>
+        <v>0.009294648674778319</v>
       </c>
       <c r="P12">
-        <v>0.00377077337031945</v>
+        <v>0.009294648674778319</v>
       </c>
       <c r="Q12">
-        <v>0.02077730396711111</v>
+        <v>0.030271622131</v>
       </c>
       <c r="R12">
-        <v>0.186995735704</v>
+        <v>0.272444599179</v>
       </c>
       <c r="S12">
-        <v>4.638119477730149E-05</v>
+        <v>7.529797165459128E-05</v>
       </c>
       <c r="T12">
-        <v>4.63811947773015E-05</v>
+        <v>7.529797165459127E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5344323333333333</v>
+        <v>0.3511096666666667</v>
       </c>
       <c r="H13">
-        <v>1.603297</v>
+        <v>1.053329</v>
       </c>
       <c r="I13">
-        <v>0.01230018095024688</v>
+        <v>0.00810121762417095</v>
       </c>
       <c r="J13">
-        <v>0.01230018095024688</v>
+        <v>0.008101217624170948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2761406666666666</v>
+        <v>1.128021</v>
       </c>
       <c r="N13">
-        <v>0.828422</v>
+        <v>3.384063</v>
       </c>
       <c r="O13">
-        <v>0.0267833151878282</v>
+        <v>0.1216066308590198</v>
       </c>
       <c r="P13">
-        <v>0.02678331518782821</v>
+        <v>0.1216066308590198</v>
       </c>
       <c r="Q13">
-        <v>0.1475785008148889</v>
+        <v>0.3960590773029999</v>
       </c>
       <c r="R13">
-        <v>1.328206507334</v>
+        <v>3.564531695727</v>
       </c>
       <c r="S13">
-        <v>0.0003294396232577822</v>
+        <v>0.0009851617811311424</v>
       </c>
       <c r="T13">
-        <v>0.0003294396232577823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.1708006666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.512402</v>
-      </c>
-      <c r="I14">
-        <v>0.00393104790894538</v>
-      </c>
-      <c r="J14">
-        <v>0.003931047908945379</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>1.933412333333333</v>
-      </c>
-      <c r="N14">
-        <v>5.800237</v>
-      </c>
-      <c r="O14">
-        <v>0.187524686373736</v>
-      </c>
-      <c r="P14">
-        <v>0.187524686373736</v>
-      </c>
-      <c r="Q14">
-        <v>0.3302281154748889</v>
-      </c>
-      <c r="R14">
-        <v>2.972053039274</v>
-      </c>
-      <c r="S14">
-        <v>0.0007371685262451129</v>
-      </c>
-      <c r="T14">
-        <v>0.0007371685262451129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.1708006666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.512402</v>
-      </c>
-      <c r="I15">
-        <v>0.00393104790894538</v>
-      </c>
-      <c r="J15">
-        <v>0.003931047908945379</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.061744666666668</v>
-      </c>
-      <c r="N15">
-        <v>24.185234</v>
-      </c>
-      <c r="O15">
-        <v>0.7819212250681163</v>
-      </c>
-      <c r="P15">
-        <v>0.7819212250681165</v>
-      </c>
-      <c r="Q15">
-        <v>1.376951363563111</v>
-      </c>
-      <c r="R15">
-        <v>12.392562272068</v>
-      </c>
-      <c r="S15">
-        <v>0.003073769796764029</v>
-      </c>
-      <c r="T15">
-        <v>0.003073769796764028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.1708006666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.512402</v>
-      </c>
-      <c r="I16">
-        <v>0.00393104790894538</v>
-      </c>
-      <c r="J16">
-        <v>0.003931047908945379</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.03887733333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.116632</v>
-      </c>
-      <c r="O16">
-        <v>0.003770773370319449</v>
-      </c>
-      <c r="P16">
-        <v>0.00377077337031945</v>
-      </c>
-      <c r="Q16">
-        <v>0.006640274451555556</v>
-      </c>
-      <c r="R16">
-        <v>0.059762470064</v>
-      </c>
-      <c r="S16">
-        <v>1.482309077250119E-05</v>
-      </c>
-      <c r="T16">
-        <v>1.482309077250119E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.1708006666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.512402</v>
-      </c>
-      <c r="I17">
-        <v>0.00393104790894538</v>
-      </c>
-      <c r="J17">
-        <v>0.003931047908945379</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.2761406666666666</v>
-      </c>
-      <c r="N17">
-        <v>0.828422</v>
-      </c>
-      <c r="O17">
-        <v>0.0267833151878282</v>
-      </c>
-      <c r="P17">
-        <v>0.02678331518782821</v>
-      </c>
-      <c r="Q17">
-        <v>0.04716500996044445</v>
-      </c>
-      <c r="R17">
-        <v>0.424485089644</v>
-      </c>
-      <c r="S17">
-        <v>0.0001052864951637371</v>
-      </c>
-      <c r="T17">
-        <v>0.0001052864951637371</v>
+        <v>0.0009851617811311422</v>
       </c>
     </row>
   </sheetData>
